--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -10,12 +10,12 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -85,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +177,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -206,7 +216,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -214,11 +224,35 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:perspective val="30"/>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -229,6 +263,7 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -239,6 +274,7 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -252,6 +288,7 @@
       <c:layout/>
       <c:line3DChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -306,8 +343,14 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -330,7 +373,7 @@
             <c:numRef>
               <c:f>Sheet2!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -381,69 +424,70 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -503,8 +547,14 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -527,7 +577,7 @@
             <c:numRef>
               <c:f>Sheet2!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -640,7 +690,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -700,8 +751,14 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -724,7 +781,7 @@
             <c:numRef>
               <c:f>Sheet2!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -837,7 +894,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -897,8 +955,14 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -921,7 +985,7 @@
             <c:numRef>
               <c:f>Sheet2!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -1034,14 +1098,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="69837184"/>
         <c:axId val="69839104"/>
@@ -1052,6 +1122,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1079,7 +1150,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1087,9 +1158,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1135,6 +1227,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1176,7 +1269,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1184,9 +1277,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1230,7 +1344,10 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1278,7 +1395,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1307,7 +1424,9 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1348,13 +1467,24 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[该打卡了兄弟.xlsx]Sheet1!数据透视表4</c:name>
+    <c:name>[打卡表.xlsx]Sheet1!数据透视表4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1422,9 +1552,12 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
-      <c:perspective val="30"/>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1435,6 +1568,7 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1445,6 +1579,7 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1458,6 +1593,7 @@
       <c:layout/>
       <c:line3DChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1505,7 +1641,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1558,7 +1695,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1611,7 +1749,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1664,13 +1803,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="70882048"/>
         <c:axId val="70883584"/>
         <c:axId val="69784896"/>
@@ -1680,9 +1827,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1722,12 +1871,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="70883584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1745,6 +1896,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1782,7 +1934,10 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1824,6 +1979,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1854,13 +2010,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1892,7 +2049,7 @@
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1912,46 +2069,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2512,509 +2629,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3035,7 +2649,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3076,7 +2690,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17BFAC26-624D-41DF-A523-67735B3CEF70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BFAC26-624D-41DF-A523-67735B3CEF70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,21 +3235,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.875" customWidth="1"/>
@@ -3644,7 +3258,7 @@
     <col min="12" max="12" width="5.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -3676,7 +3290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43126</v>
       </c>
@@ -3706,13 +3320,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>43127</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="I3">
         <f>SUM(C$2:C3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <f>SUM(D$2:D3)</f>
@@ -3727,13 +3344,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>43128</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="I4">
         <f>SUM(C$2:C4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <f>SUM(D$2:D4)</f>
@@ -3748,13 +3368,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>43129</v>
       </c>
       <c r="I5">
         <f>SUM(C$2:C5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <f>SUM(D$2:D5)</f>
@@ -3769,13 +3389,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>43130</v>
       </c>
       <c r="I6">
         <f>SUM(C$2:C6)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <f>SUM(D$2:D6)</f>
@@ -3790,13 +3410,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>43131</v>
       </c>
       <c r="I7">
         <f>SUM(C$2:C7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <f>SUM(D$2:D7)</f>
@@ -3811,13 +3431,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>43132</v>
       </c>
       <c r="I8">
         <f>SUM(C$2:C8)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <f>SUM(D$2:D8)</f>
@@ -3832,13 +3452,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>43133</v>
       </c>
       <c r="I9">
         <f>SUM(C$2:C9)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9">
         <f>SUM(D$2:D9)</f>
@@ -3853,13 +3473,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>43134</v>
       </c>
       <c r="I10">
         <f>SUM(C$2:C10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <f>SUM(D$2:D10)</f>
@@ -3874,13 +3494,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>43135</v>
       </c>
       <c r="I11">
         <f>SUM(C$2:C11)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <f>SUM(D$2:D11)</f>
@@ -3895,13 +3515,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>43136</v>
       </c>
       <c r="I12">
         <f>SUM(C$2:C12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <f>SUM(D$2:D12)</f>
@@ -3916,13 +3536,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>43137</v>
       </c>
       <c r="I13">
         <f>SUM(C$2:C13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <f>SUM(D$2:D13)</f>
@@ -3937,11 +3557,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="I14">
         <f>SUM(C$2:C14)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <f>SUM(D$2:D14)</f>
@@ -3956,11 +3576,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="I15">
         <f>SUM(C$2:C15)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <f>SUM(D$2:D15)</f>
@@ -3975,11 +3595,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="I16">
         <f>SUM(C$2:C16)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <f>SUM(D$2:D16)</f>
@@ -3994,11 +3614,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="I17">
         <f>SUM(C$2:C17)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <f>SUM(D$2:D17)</f>
@@ -4013,11 +3633,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="I18">
         <f>SUM(C$2:C18)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <f>SUM(D$2:D18)</f>
@@ -4032,11 +3652,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="I19">
         <f>SUM(C$2:C19)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <f>SUM(D$2:D19)</f>
@@ -4051,11 +3671,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="I20">
         <f>SUM(C$2:C20)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20">
         <f>SUM(D$2:D20)</f>
@@ -4070,11 +3690,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="I21">
         <f>SUM(C$2:C21)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21">
         <f>SUM(D$2:D21)</f>
@@ -4089,11 +3709,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="I22">
         <f>SUM(C$2:C22)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22">
         <f>SUM(D$2:D22)</f>
@@ -4108,25 +3728,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23">
-        <f>SUBTOTAL(109,[yyf])</f>
+        <f>SUBTOTAL(109,表2[yyf])</f>
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <f>SUBTOTAL(109,表2[xm])</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>SUBTOTAL(109,表2[yb])</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUBTOTAL(109,表2[xy])</f>
         <v>1</v>
       </c>
-      <c r="D23">
-        <f>SUBTOTAL(109,[xm])</f>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f>SUBTOTAL(109,[yb])</f>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f>SUBTOTAL(109,[xy])</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>14</v>
       </c>
@@ -4246,14 +3866,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
@@ -4262,7 +3882,7 @@
     <col min="12" max="13" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -4288,7 +3908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -4314,7 +3934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -4328,16 +3948,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="11:11">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="11:11">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="11:11">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K21" s="2"/>
     </row>
-    <row r="1048576" spans="2:2">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1048576">
         <f>SUM(B2:B1048575)</f>
         <v>4</v>

--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
@@ -85,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -216,6 +216,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -224,32 +225,13 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -350,7 +332,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -487,7 +469,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -554,7 +536,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -634,64 +616,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -758,7 +740,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -895,7 +877,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -962,7 +944,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1099,7 +1081,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -1113,12 +1095,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69837184"/>
-        <c:axId val="69839104"/>
-        <c:axId val="69388032"/>
+        <c:axId val="121878016"/>
+        <c:axId val="121879936"/>
+        <c:axId val="112234944"/>
       </c:line3DChart>
       <c:dateAx>
-        <c:axId val="69837184"/>
+        <c:axId val="121878016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,6 +1132,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1158,26 +1141,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1216,14 +1179,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69839104"/>
+        <c:crossAx val="121879936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69839104"/>
+        <c:axId val="121879936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,6 +1232,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1277,26 +1241,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1335,12 +1279,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69837184"/>
+        <c:crossAx val="121878016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="69388032"/>
+        <c:axId val="112234944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1326,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69839104"/>
+        <c:crossAx val="121879936"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1395,6 +1339,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1467,7 +1412,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1555,6 +1500,7 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1642,7 +1588,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1696,7 +1642,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1750,7 +1696,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1804,7 +1750,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1818,12 +1764,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="70882048"/>
-        <c:axId val="70883584"/>
-        <c:axId val="69784896"/>
+        <c:axId val="121803904"/>
+        <c:axId val="121805440"/>
+        <c:axId val="112237184"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="70882048"/>
+        <c:axId val="121803904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,7 +1812,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70883584"/>
+        <c:crossAx val="121805440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1874,7 +1820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70883584"/>
+        <c:axId val="121805440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,12 +1871,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70882048"/>
+        <c:crossAx val="121803904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="69784896"/>
+        <c:axId val="112237184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,7 +1912,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70883584"/>
+        <c:crossAx val="121805440"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -2010,14 +1956,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2049,7 +1995,12 @@
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2058,11 +2009,6 @@
         <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -2649,7 +2595,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,7 +2636,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BFAC26-624D-41DF-A523-67735B3CEF70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17BFAC26-624D-41DF-A523-67735B3CEF70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3181,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3246,10 +3192,10 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.875" customWidth="1"/>
@@ -3258,7 +3204,7 @@
     <col min="12" max="12" width="5.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -3290,7 +3236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="27">
       <c r="A2" s="4">
         <v>43126</v>
       </c>
@@ -3320,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>43127</v>
       </c>
@@ -3344,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>43128</v>
       </c>
@@ -3368,9 +3314,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>43129</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="I5">
         <f>SUM(C$2:C5)</f>
@@ -3378,7 +3327,7 @@
       </c>
       <c r="J5">
         <f>SUM(D$2:D5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f>SUM(E$2:E5)</f>
@@ -3389,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>43130</v>
       </c>
@@ -3399,7 +3348,7 @@
       </c>
       <c r="J6">
         <f>SUM(D$2:D6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f>SUM(E$2:E6)</f>
@@ -3410,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>43131</v>
       </c>
@@ -3420,7 +3369,7 @@
       </c>
       <c r="J7">
         <f>SUM(D$2:D7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f>SUM(E$2:E7)</f>
@@ -3431,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>43132</v>
       </c>
@@ -3441,7 +3390,7 @@
       </c>
       <c r="J8">
         <f>SUM(D$2:D8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f>SUM(E$2:E8)</f>
@@ -3452,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>43133</v>
       </c>
@@ -3462,7 +3411,7 @@
       </c>
       <c r="J9">
         <f>SUM(D$2:D9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f>SUM(E$2:E9)</f>
@@ -3473,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>43134</v>
       </c>
@@ -3483,7 +3432,7 @@
       </c>
       <c r="J10">
         <f>SUM(D$2:D10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f>SUM(E$2:E10)</f>
@@ -3494,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>43135</v>
       </c>
@@ -3504,7 +3453,7 @@
       </c>
       <c r="J11">
         <f>SUM(D$2:D11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <f>SUM(E$2:E11)</f>
@@ -3515,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>43136</v>
       </c>
@@ -3525,7 +3474,7 @@
       </c>
       <c r="J12">
         <f>SUM(D$2:D12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <f>SUM(E$2:E12)</f>
@@ -3536,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>43137</v>
       </c>
@@ -3546,7 +3495,7 @@
       </c>
       <c r="J13">
         <f>SUM(D$2:D13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <f>SUM(E$2:E13)</f>
@@ -3557,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="I14">
         <f>SUM(C$2:C14)</f>
@@ -3565,7 +3514,7 @@
       </c>
       <c r="J14">
         <f>SUM(D$2:D14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <f>SUM(E$2:E14)</f>
@@ -3576,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="I15">
         <f>SUM(C$2:C15)</f>
@@ -3584,7 +3533,7 @@
       </c>
       <c r="J15">
         <f>SUM(D$2:D15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <f>SUM(E$2:E15)</f>
@@ -3595,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="I16">
         <f>SUM(C$2:C16)</f>
@@ -3603,7 +3552,7 @@
       </c>
       <c r="J16">
         <f>SUM(D$2:D16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <f>SUM(E$2:E16)</f>
@@ -3614,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="I17">
         <f>SUM(C$2:C17)</f>
@@ -3622,7 +3571,7 @@
       </c>
       <c r="J17">
         <f>SUM(D$2:D17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <f>SUM(E$2:E17)</f>
@@ -3633,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="I18">
         <f>SUM(C$2:C18)</f>
@@ -3641,7 +3590,7 @@
       </c>
       <c r="J18">
         <f>SUM(D$2:D18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <f>SUM(E$2:E18)</f>
@@ -3652,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="I19">
         <f>SUM(C$2:C19)</f>
@@ -3660,7 +3609,7 @@
       </c>
       <c r="J19">
         <f>SUM(D$2:D19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <f>SUM(E$2:E19)</f>
@@ -3671,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="4"/>
       <c r="I20">
         <f>SUM(C$2:C20)</f>
@@ -3679,7 +3628,7 @@
       </c>
       <c r="J20">
         <f>SUM(D$2:D20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <f>SUM(E$2:E20)</f>
@@ -3690,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="4"/>
       <c r="I21">
         <f>SUM(C$2:C21)</f>
@@ -3698,7 +3647,7 @@
       </c>
       <c r="J21">
         <f>SUM(D$2:D21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <f>SUM(E$2:E21)</f>
@@ -3709,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="4"/>
       <c r="I22">
         <f>SUM(C$2:C22)</f>
@@ -3717,7 +3666,7 @@
       </c>
       <c r="J22">
         <f>SUM(D$2:D22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <f>SUM(E$2:E22)</f>
@@ -3728,14 +3677,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="C23">
         <f>SUBTOTAL(109,表2[yyf])</f>
         <v>3</v>
       </c>
       <c r="D23">
         <f>SUBTOTAL(109,表2[xm])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <f>SUBTOTAL(109,表2[yb])</f>
@@ -3746,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="E29" t="s">
         <v>14</v>
       </c>
@@ -3873,7 +3822,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
@@ -3882,7 +3831,7 @@
     <col min="12" max="13" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3908,7 +3857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -3934,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -3948,16 +3897,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:11">
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:11">
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:11">
       <c r="K21" s="2"/>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="2:2">
       <c r="B1048576">
         <f>SUM(B2:B1048575)</f>
         <v>4</v>

--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>yyf</t>
   </si>
@@ -69,24 +69,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这里放置今日计划的
-简要内容说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>·</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xueyu: 数学不定积分的第二类换元法简直看不懂，坚持的意义开始体现了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,15 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -177,7 +165,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -216,7 +204,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -225,13 +212,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -276,7 +282,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$1</c:f>
+              <c:f>Sheet2!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -332,7 +338,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -378,27 +384,12 @@
                 <c:pt idx="6">
                   <c:v>43132</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>43133</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43135</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43136</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43137</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$2:$I$22</c:f>
+              <c:f>Sheet2!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -469,7 +460,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -480,7 +471,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$1</c:f>
+              <c:f>Sheet2!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -536,7 +527,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -582,27 +573,12 @@
                 <c:pt idx="6">
                   <c:v>43132</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>43133</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43135</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43136</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43137</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$2:$J$22</c:f>
+              <c:f>Sheet2!$I$2:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -673,7 +649,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -684,7 +660,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$1</c:f>
+              <c:f>Sheet2!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -740,7 +716,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -786,27 +762,12 @@
                 <c:pt idx="6">
                   <c:v>43132</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>43133</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43135</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43136</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43137</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$2:$K$22</c:f>
+              <c:f>Sheet2!$J$2:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -877,7 +838,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -888,7 +849,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$L$1</c:f>
+              <c:f>Sheet2!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -944,7 +905,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -990,27 +951,12 @@
                 <c:pt idx="6">
                   <c:v>43132</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>43133</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43135</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43136</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43137</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$2:$L$22</c:f>
+              <c:f>Sheet2!$K$2:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1033,55 +979,55 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -1132,7 +1078,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1141,6 +1086,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1232,7 +1197,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1241,6 +1205,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1339,7 +1323,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1412,7 +1395,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1500,7 +1483,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1588,7 +1570,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1642,7 +1624,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1696,7 +1678,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1750,7 +1732,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1956,14 +1938,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1995,12 +1977,7 @@
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2009,6 +1986,11 @@
         <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -2579,23 +2561,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685798</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2618,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17BFAC26-624D-41DF-A523-67735B3CEF70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BFAC26-624D-41DF-A523-67735B3CEF70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2640,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="43125.978678703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43125.978678703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:E36" sheet="Sheet1"/>
   </cacheSource>
@@ -2816,7 +2798,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J1:M2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -2901,26 +2883,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C1:F23" totalsRowCount="1">
-  <autoFilter ref="C1:F22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="B1:E23" totalsRowCount="1">
+  <autoFilter ref="B1:E22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="yyf" totalsRowFunction="sum"/>
-    <tableColumn id="2" name="xm" totalsRowFunction="sum"/>
-    <tableColumn id="3" name="yb" totalsRowFunction="sum"/>
-    <tableColumn id="4" name="xy" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="yyf" totalsRowFunction="sum"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="xm" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="yb" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="I1:L23" totalsRowCount="1">
-  <autoFilter ref="I1:L22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_4" displayName="表2_4" ref="H1:K23" totalsRowCount="1">
+  <autoFilter ref="H1:K22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="yyf"/>
-    <tableColumn id="2" name="xm"/>
-    <tableColumn id="3" name="yb"/>
-    <tableColumn id="4" name="xy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="yyf"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="xm"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="yb"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="xy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3181,77 +3163,74 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.875" customWidth="1"/>
-    <col min="9" max="10" width="6.125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.75" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="6.125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.75" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="27">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43126</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B$2:B2)</f>
         <v>1</v>
       </c>
       <c r="I2">
         <f>SUM(C$2:C2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>SUM(D$2:D2)</f>
@@ -3259,23 +3238,23 @@
       </c>
       <c r="K2">
         <f>SUM(E$2:E2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>SUM(F$2:F2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>43127</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <f>SUM(B$2:B3)</f>
+        <v>2</v>
       </c>
       <c r="I3">
         <f>SUM(C$2:C3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <f>SUM(D$2:D3)</f>
@@ -3283,23 +3262,23 @@
       </c>
       <c r="K3">
         <f>SUM(E$2:E3)</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>SUM(F$2:F3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>43128</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <f>SUM(B$2:B4)</f>
+        <v>3</v>
       </c>
       <c r="I4">
         <f>SUM(C$2:C4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f>SUM(D$2:D4)</f>
@@ -3307,397 +3286,386 @@
       </c>
       <c r="K4">
         <f>SUM(E$2:E4)</f>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f>SUM(F$2:F4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>43129</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <f>SUM(B$2:B5)</f>
+        <v>3</v>
       </c>
       <c r="I5">
         <f>SUM(C$2:C5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f>SUM(D$2:D5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f>SUM(E$2:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f>SUM(F$2:F5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>43130</v>
       </c>
+      <c r="H6">
+        <f>SUM(B$2:B6)</f>
+        <v>3</v>
+      </c>
       <c r="I6">
         <f>SUM(C$2:C6)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f>SUM(D$2:D6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f>SUM(E$2:E6)</f>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f>SUM(F$2:F6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>43131</v>
       </c>
+      <c r="H7">
+        <f>SUM(B$2:B7)</f>
+        <v>3</v>
+      </c>
       <c r="I7">
         <f>SUM(C$2:C7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f>SUM(D$2:D7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <f>SUM(E$2:E7)</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>SUM(F$2:F7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>43132</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f>SUM(B$2:B8)</f>
+        <v>3</v>
+      </c>
       <c r="I8">
         <f>SUM(C$2:C8)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f>SUM(D$2:D8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f>SUM(E$2:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>SUM(F$2:F8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="4">
-        <v>43133</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="H9">
+        <f>SUM(B$2:B9)</f>
+        <v>3</v>
       </c>
       <c r="I9">
         <f>SUM(C$2:C9)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f>SUM(D$2:D9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f>SUM(E$2:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f>SUM(F$2:F9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="4">
-        <v>43134</v>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="H10">
+        <f>SUM(B$2:B10)</f>
+        <v>3</v>
       </c>
       <c r="I10">
         <f>SUM(C$2:C10)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f>SUM(D$2:D10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <f>SUM(E$2:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f>SUM(F$2:F10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4">
-        <v>43135</v>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="H11">
+        <f>SUM(B$2:B11)</f>
+        <v>3</v>
       </c>
       <c r="I11">
         <f>SUM(C$2:C11)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <f>SUM(D$2:D11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <f>SUM(E$2:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f>SUM(F$2:F11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4">
-        <v>43136</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="H12">
+        <f>SUM(B$2:B12)</f>
+        <v>3</v>
       </c>
       <c r="I12">
         <f>SUM(C$2:C12)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <f>SUM(D$2:D12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <f>SUM(E$2:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f>SUM(F$2:F12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4">
-        <v>43137</v>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="H13">
+        <f>SUM(B$2:B13)</f>
+        <v>3</v>
       </c>
       <c r="I13">
         <f>SUM(C$2:C13)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <f>SUM(D$2:D13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f>SUM(E$2:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>SUM(F$2:F13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
+      <c r="H14">
+        <f>SUM(B$2:B14)</f>
+        <v>3</v>
+      </c>
       <c r="I14">
         <f>SUM(C$2:C14)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f>SUM(D$2:D14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f>SUM(E$2:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f>SUM(F$2:F14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
+      <c r="H15">
+        <f>SUM(B$2:B15)</f>
+        <v>3</v>
+      </c>
       <c r="I15">
         <f>SUM(C$2:C15)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <f>SUM(D$2:D15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f>SUM(E$2:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>SUM(F$2:F15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
+      <c r="H16">
+        <f>SUM(B$2:B16)</f>
+        <v>3</v>
+      </c>
       <c r="I16">
         <f>SUM(C$2:C16)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <f>SUM(D$2:D16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <f>SUM(E$2:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>SUM(F$2:F16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
+      <c r="H17">
+        <f>SUM(B$2:B17)</f>
+        <v>3</v>
+      </c>
       <c r="I17">
         <f>SUM(C$2:C17)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <f>SUM(D$2:D17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <f>SUM(E$2:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>SUM(F$2:F17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
+      <c r="H18">
+        <f>SUM(B$2:B18)</f>
+        <v>3</v>
+      </c>
       <c r="I18">
         <f>SUM(C$2:C18)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <f>SUM(D$2:D18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <f>SUM(E$2:E18)</f>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f>SUM(F$2:F18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
+      <c r="H19">
+        <f>SUM(B$2:B19)</f>
+        <v>3</v>
+      </c>
       <c r="I19">
         <f>SUM(C$2:C19)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <f>SUM(D$2:D19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <f>SUM(E$2:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>SUM(F$2:F19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
+      <c r="H20">
+        <f>SUM(B$2:B20)</f>
+        <v>3</v>
+      </c>
       <c r="I20">
         <f>SUM(C$2:C20)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <f>SUM(D$2:D20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <f>SUM(E$2:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>SUM(F$2:F20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
+      <c r="H21">
+        <f>SUM(B$2:B21)</f>
+        <v>3</v>
+      </c>
       <c r="I21">
         <f>SUM(C$2:C21)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <f>SUM(D$2:D21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <f>SUM(E$2:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f>SUM(F$2:F21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
+      <c r="H22">
+        <f>SUM(B$2:B22)</f>
+        <v>3</v>
+      </c>
       <c r="I22">
         <f>SUM(C$2:C22)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <f>SUM(D$2:D22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <f>SUM(E$2:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f>SUM(F$2:F22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="C23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23">
         <f>SUBTOTAL(109,表2[yyf])</f>
         <v>3</v>
       </c>
-      <c r="D23">
+      <c r="C23">
         <f>SUBTOTAL(109,表2[xm])</f>
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <f>SUBTOTAL(109,表2[yb])</f>
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="E23">
         <f>SUBTOTAL(109,表2[xy])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="E29" t="s">
-        <v>14</v>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3680,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="span" negative="1">
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="span" negative="1" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3723,88 +3691,88 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet2!C2:F2</xm:f>
-              <xm:sqref>G2</xm:sqref>
+              <xm:f>Sheet2!B2:E2</xm:f>
+              <xm:sqref>F2</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C3:F3</xm:f>
-              <xm:sqref>G3</xm:sqref>
+              <xm:f>Sheet2!B3:E3</xm:f>
+              <xm:sqref>F3</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C4:F4</xm:f>
-              <xm:sqref>G4</xm:sqref>
+              <xm:f>Sheet2!B4:E4</xm:f>
+              <xm:sqref>F4</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C5:F5</xm:f>
-              <xm:sqref>G5</xm:sqref>
+              <xm:f>Sheet2!B5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C6:F6</xm:f>
-              <xm:sqref>G6</xm:sqref>
+              <xm:f>Sheet2!B6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C7:F7</xm:f>
-              <xm:sqref>G7</xm:sqref>
+              <xm:f>Sheet2!B7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C8:F8</xm:f>
-              <xm:sqref>G8</xm:sqref>
+              <xm:f>Sheet2!B8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C9:F9</xm:f>
-              <xm:sqref>G9</xm:sqref>
+              <xm:f>Sheet2!B9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C10:F10</xm:f>
-              <xm:sqref>G10</xm:sqref>
+              <xm:f>Sheet2!B10:E10</xm:f>
+              <xm:sqref>F10</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C11:F11</xm:f>
-              <xm:sqref>G11</xm:sqref>
+              <xm:f>Sheet2!B11:E11</xm:f>
+              <xm:sqref>F11</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C12:F12</xm:f>
-              <xm:sqref>G12</xm:sqref>
+              <xm:f>Sheet2!B12:E12</xm:f>
+              <xm:sqref>F12</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C13:F13</xm:f>
-              <xm:sqref>G13</xm:sqref>
+              <xm:f>Sheet2!B13:E13</xm:f>
+              <xm:sqref>F13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C14:F14</xm:f>
-              <xm:sqref>G14</xm:sqref>
+              <xm:f>Sheet2!B14:E14</xm:f>
+              <xm:sqref>F14</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C15:F15</xm:f>
-              <xm:sqref>G15</xm:sqref>
+              <xm:f>Sheet2!B15:E15</xm:f>
+              <xm:sqref>F15</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C16:F16</xm:f>
-              <xm:sqref>G16</xm:sqref>
+              <xm:f>Sheet2!B16:E16</xm:f>
+              <xm:sqref>F16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C17:F17</xm:f>
-              <xm:sqref>G17</xm:sqref>
+              <xm:f>Sheet2!B17:E17</xm:f>
+              <xm:sqref>F17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C18:F18</xm:f>
-              <xm:sqref>G18</xm:sqref>
+              <xm:f>Sheet2!B18:E18</xm:f>
+              <xm:sqref>F18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C19:F19</xm:f>
-              <xm:sqref>G19</xm:sqref>
+              <xm:f>Sheet2!B19:E19</xm:f>
+              <xm:sqref>F19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C20:F20</xm:f>
-              <xm:sqref>G20</xm:sqref>
+              <xm:f>Sheet2!B20:E20</xm:f>
+              <xm:sqref>F20</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C21:F21</xm:f>
-              <xm:sqref>G21</xm:sqref>
+              <xm:f>Sheet2!B21:E21</xm:f>
+              <xm:sqref>F21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!C22:F22</xm:f>
-              <xm:sqref>G22</xm:sqref>
+              <xm:f>Sheet2!B22:E22</xm:f>
+              <xm:sqref>F22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -3815,14 +3783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
@@ -3831,7 +3799,7 @@
     <col min="12" max="13" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3857,7 +3825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -3883,7 +3851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -3897,16 +3865,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="11:11">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="11:11">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="11:11">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K21" s="2"/>
     </row>
-    <row r="1048576" spans="2:2">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1048576">
         <f>SUM(B2:B1048575)</f>
         <v>4</v>

--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,6 +204,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -340,6 +341,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -383,6 +385,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,6 +534,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -572,6 +578,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,6 +727,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -761,6 +771,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,6 +920,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -951,6 +965,9 @@
                 <c:pt idx="6">
                   <c:v>43132</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43133</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -982,46 +999,46 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,6 +1095,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1197,6 +1215,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1323,6 +1342,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1938,6 +1958,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1945,7 +1966,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2640,9 +2660,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43125.978678703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="43125.978678703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:E36" sheet="Sheet1"/>
+    <worksheetSource ref="B1:E36" sheet="Sheet1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="yyf" numFmtId="0">
@@ -2798,7 +2818,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J1:M2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -2883,26 +2903,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="B1:E23" totalsRowCount="1">
-  <autoFilter ref="B1:E22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B1:E23" totalsRowCount="1">
+  <autoFilter ref="B1:E22"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="yyf" totalsRowFunction="sum"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="xm" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="yb" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="yyf" totalsRowFunction="sum"/>
+    <tableColumn id="2" name="xm" totalsRowFunction="sum"/>
+    <tableColumn id="3" name="yb" totalsRowFunction="sum"/>
+    <tableColumn id="4" name="xy" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_4" displayName="表2_4" ref="H1:K23" totalsRowCount="1">
-  <autoFilter ref="H1:K22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="H1:K23" totalsRowCount="1">
+  <autoFilter ref="H1:K22"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="yyf"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="xm"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="yb"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="xy"/>
+    <tableColumn id="1" name="yyf"/>
+    <tableColumn id="2" name="xm"/>
+    <tableColumn id="3" name="yb"/>
+    <tableColumn id="4" name="xy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3170,11 +3190,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3380,7 +3400,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4">
+        <v>43133</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="H9">
         <f>SUM(B$2:B9)</f>
         <v>3</v>
@@ -3395,7 +3420,7 @@
       </c>
       <c r="K9">
         <f>SUM(E$2:E9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3414,7 +3439,7 @@
       </c>
       <c r="K10">
         <f>SUM(E$2:E10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3433,7 +3458,7 @@
       </c>
       <c r="K11">
         <f>SUM(E$2:E11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3452,7 +3477,7 @@
       </c>
       <c r="K12">
         <f>SUM(E$2:E12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3471,7 +3496,7 @@
       </c>
       <c r="K13">
         <f>SUM(E$2:E13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3490,7 +3515,7 @@
       </c>
       <c r="K14">
         <f>SUM(E$2:E14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3509,7 +3534,7 @@
       </c>
       <c r="K15">
         <f>SUM(E$2:E15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3528,7 +3553,7 @@
       </c>
       <c r="K16">
         <f>SUM(E$2:E16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3547,7 +3572,7 @@
       </c>
       <c r="K17">
         <f>SUM(E$2:E17)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3566,7 +3591,7 @@
       </c>
       <c r="K18">
         <f>SUM(E$2:E18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3585,7 +3610,7 @@
       </c>
       <c r="K19">
         <f>SUM(E$2:E19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3604,7 +3629,7 @@
       </c>
       <c r="K20">
         <f>SUM(E$2:E20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3623,7 +3648,7 @@
       </c>
       <c r="K21">
         <f>SUM(E$2:E21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3642,7 +3667,7 @@
       </c>
       <c r="K22">
         <f>SUM(E$2:E22)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3660,7 +3685,7 @@
       </c>
       <c r="E23">
         <f>SUBTOTAL(109,表2[xy])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3680,7 +3705,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="span" negative="1" xr2:uid="{00000000-0003-0000-0000-000000000000}">
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="span" negative="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3783,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="每日打卡情况" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="每周打卡情况" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>yyf</t>
   </si>
@@ -72,12 +73,28 @@
     <t>·</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">  2018/01/29 - 2018/02/04 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2018/02/05 - 2018/02/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +157,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -165,18 +186,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -205,7 +216,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -213,35 +223,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -252,7 +238,6 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -263,7 +248,6 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -277,13 +261,12 @@
       <c:layout/>
       <c:line3DChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$1</c:f>
+              <c:f>每日打卡情况!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -332,14 +315,8 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -361,9 +338,9 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$24</c:f>
+              <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -394,7 +371,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$2:$H$22</c:f>
+              <c:f>每日打卡情况!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -464,8 +441,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -476,7 +452,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$1</c:f>
+              <c:f>每日打卡情况!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -525,14 +501,8 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -554,9 +524,9 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$24</c:f>
+              <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -587,7 +557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$2:$I$22</c:f>
+              <c:f>每日打卡情况!$I$2:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -657,8 +627,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -669,7 +638,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$1</c:f>
+              <c:f>每日打卡情况!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -718,14 +687,8 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -747,9 +710,9 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$24</c:f>
+              <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -780,7 +743,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$2:$J$22</c:f>
+              <c:f>每日打卡情况!$J$2:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -850,8 +813,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -862,7 +824,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$1</c:f>
+              <c:f>每日打卡情况!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -911,14 +873,8 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -940,9 +896,9 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$24</c:f>
+              <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -973,7 +929,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$2:$K$22</c:f>
+              <c:f>每日打卡情况!$K$2:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1043,31 +999,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121878016"/>
-        <c:axId val="121879936"/>
-        <c:axId val="112234944"/>
+        <c:axId val="64930176"/>
+        <c:axId val="64932096"/>
+        <c:axId val="64227520"/>
       </c:line3DChart>
       <c:dateAx>
-        <c:axId val="121878016"/>
+        <c:axId val="64930176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1096,7 +1045,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1104,30 +1052,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1162,18 +1089,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121879936"/>
+        <c:crossAx val="64932096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121879936"/>
+        <c:axId val="64932096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1216,7 +1142,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1224,30 +1149,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1282,19 +1186,16 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121878016"/>
+        <c:crossAx val="64930176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="112234944"/>
+        <c:axId val="64227520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1329,7 +1230,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121879936"/>
+        <c:crossAx val="64932096"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1343,7 +1244,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1372,9 +1272,7 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1408,31 +1306,20 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[打卡表.xlsx]Sheet1!数据透视表4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1500,12 +1387,9 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1516,7 +1400,6 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1527,7 +1410,6 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1541,7 +1423,6 @@
       <c:layout/>
       <c:line3DChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1589,8 +1470,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1643,8 +1523,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1697,8 +1576,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1751,35 +1629,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="121803904"/>
-        <c:axId val="121805440"/>
-        <c:axId val="112237184"/>
+        <c:dLbls/>
+        <c:axId val="64992000"/>
+        <c:axId val="64993536"/>
+        <c:axId val="64300800"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="121803904"/>
+        <c:axId val="64992000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1814,19 +1682,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121805440"/>
+        <c:crossAx val="64993536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121805440"/>
+        <c:axId val="64993536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1844,7 +1710,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1873,19 +1738,16 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121803904"/>
+        <c:crossAx val="64992000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="112237184"/>
+        <c:axId val="64300800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1914,7 +1776,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121805440"/>
+        <c:crossAx val="64993536"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1927,7 +1789,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1958,8 +1820,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -1994,10 +1855,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2013,6 +1874,483 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>打卡曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每周打卡情况!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yyf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>每周打卡情况!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>第一周</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>第二周</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每周打卡情况!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每周打卡情况!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>xm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>每周打卡情况!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>第一周</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>第二周</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每周打卡情况!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每周打卡情况!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>每周打卡情况!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>第一周</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>第二周</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每周打卡情况!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每周打卡情况!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>xy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>每周打卡情况!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>第一周</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>第二周</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每周打卡情况!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="178035328"/>
+        <c:axId val="178065408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="178035328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>打卡时间</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178065408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178065408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>计划完成率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178035328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d prstMaterial="matte"/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2597,7 +2935,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2976,48 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BFAC26-624D-41DF-A523-67735B3CEF70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17BFAC26-624D-41DF-A523-67735B3CEF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514352</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,6 +3302,19 @@
     <tableColumn id="2" name="xm"/>
     <tableColumn id="3" name="yb"/>
     <tableColumn id="4" name="xy"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="C1:F23" totalsRowCount="1">
+  <autoFilter ref="C1:F23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="yyf" totalsRowFunction="sum"/>
+    <tableColumn id="2" name="xm" totalsRowFunction="sum"/>
+    <tableColumn id="3" name="yb" totalsRowFunction="sum"/>
+    <tableColumn id="4" name="xy" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3183,21 +3575,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.125" hidden="1" customWidth="1"/>
@@ -3205,7 +3597,7 @@
     <col min="11" max="11" width="5.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -3234,7 +3626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>43126</v>
       </c>
@@ -3261,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>43127</v>
       </c>
@@ -3285,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>43128</v>
       </c>
@@ -3309,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>43129</v>
       </c>
@@ -3333,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>43130</v>
       </c>
@@ -3354,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>43131</v>
       </c>
@@ -3375,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>43132</v>
       </c>
@@ -3399,7 +3791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>43133</v>
       </c>
@@ -3423,7 +3815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="4"/>
       <c r="H10">
         <f>SUM(B$2:B10)</f>
@@ -3442,7 +3834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="4"/>
       <c r="H11">
         <f>SUM(B$2:B11)</f>
@@ -3461,7 +3853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="4"/>
       <c r="H12">
         <f>SUM(B$2:B12)</f>
@@ -3480,7 +3872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="4"/>
       <c r="H13">
         <f>SUM(B$2:B13)</f>
@@ -3499,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="4"/>
       <c r="H14">
         <f>SUM(B$2:B14)</f>
@@ -3518,7 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="4"/>
       <c r="H15">
         <f>SUM(B$2:B15)</f>
@@ -3537,7 +3929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="4"/>
       <c r="H16">
         <f>SUM(B$2:B16)</f>
@@ -3556,7 +3948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="4"/>
       <c r="H17">
         <f>SUM(B$2:B17)</f>
@@ -3575,7 +3967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="4"/>
       <c r="H18">
         <f>SUM(B$2:B18)</f>
@@ -3594,7 +3986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="4"/>
       <c r="H19">
         <f>SUM(B$2:B19)</f>
@@ -3613,7 +4005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="4"/>
       <c r="H20">
         <f>SUM(B$2:B20)</f>
@@ -3632,7 +4024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="4"/>
       <c r="H21">
         <f>SUM(B$2:B21)</f>
@@ -3651,7 +4043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="4"/>
       <c r="H22">
         <f>SUM(B$2:B22)</f>
@@ -3670,25 +4062,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="B23">
-        <f>SUBTOTAL(109,表2[yyf])</f>
+        <f>SUBTOTAL(109,[yyf])</f>
         <v>3</v>
       </c>
       <c r="C23">
-        <f>SUBTOTAL(109,表2[xm])</f>
+        <f>SUBTOTAL(109,[xm])</f>
         <v>1</v>
       </c>
       <c r="D23">
-        <f>SUBTOTAL(109,表2[yb])</f>
+        <f>SUBTOTAL(109,[yb])</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>SUBTOTAL(109,表2[xy])</f>
+        <f>SUBTOTAL(109,[xy])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="D29" t="s">
         <v>13</v>
       </c>
@@ -3716,87 +4108,87 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet2!B2:E2</xm:f>
+              <xm:f>每日打卡情况!B2:E2</xm:f>
               <xm:sqref>F2</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B3:E3</xm:f>
+              <xm:f>每日打卡情况!B3:E3</xm:f>
               <xm:sqref>F3</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B4:E4</xm:f>
+              <xm:f>每日打卡情况!B4:E4</xm:f>
               <xm:sqref>F4</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B5:E5</xm:f>
+              <xm:f>每日打卡情况!B5:E5</xm:f>
               <xm:sqref>F5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B6:E6</xm:f>
+              <xm:f>每日打卡情况!B6:E6</xm:f>
               <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B7:E7</xm:f>
+              <xm:f>每日打卡情况!B7:E7</xm:f>
               <xm:sqref>F7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B8:E8</xm:f>
+              <xm:f>每日打卡情况!B8:E8</xm:f>
               <xm:sqref>F8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B9:E9</xm:f>
+              <xm:f>每日打卡情况!B9:E9</xm:f>
               <xm:sqref>F9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B10:E10</xm:f>
+              <xm:f>每日打卡情况!B10:E10</xm:f>
               <xm:sqref>F10</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B11:E11</xm:f>
+              <xm:f>每日打卡情况!B11:E11</xm:f>
               <xm:sqref>F11</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B12:E12</xm:f>
+              <xm:f>每日打卡情况!B12:E12</xm:f>
               <xm:sqref>F12</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B13:E13</xm:f>
+              <xm:f>每日打卡情况!B13:E13</xm:f>
               <xm:sqref>F13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B14:E14</xm:f>
+              <xm:f>每日打卡情况!B14:E14</xm:f>
               <xm:sqref>F14</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B15:E15</xm:f>
+              <xm:f>每日打卡情况!B15:E15</xm:f>
               <xm:sqref>F15</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B16:E16</xm:f>
+              <xm:f>每日打卡情况!B16:E16</xm:f>
               <xm:sqref>F16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B17:E17</xm:f>
+              <xm:f>每日打卡情况!B17:E17</xm:f>
               <xm:sqref>F17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B18:E18</xm:f>
+              <xm:f>每日打卡情况!B18:E18</xm:f>
               <xm:sqref>F18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B19:E19</xm:f>
+              <xm:f>每日打卡情况!B19:E19</xm:f>
               <xm:sqref>F19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B20:E20</xm:f>
+              <xm:f>每日打卡情况!B20:E20</xm:f>
               <xm:sqref>F20</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B21:E21</xm:f>
+              <xm:f>每日打卡情况!B21:E21</xm:f>
               <xm:sqref>F21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet2!B22:E22</xm:f>
+              <xm:f>每日打卡情况!B22:E22</xm:f>
               <xm:sqref>F22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
@@ -3808,14 +4200,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
@@ -3824,7 +4216,7 @@
     <col min="12" max="13" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3850,7 +4242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -3876,7 +4268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -3890,16 +4282,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:11">
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:11">
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:11">
       <c r="K21" s="2"/>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="2:2">
       <c r="B1048576">
         <f>SUM(B2:B1048575)</f>
         <v>4</v>
@@ -3911,4 +4303,162 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="9" max="10" width="6.125" customWidth="1"/>
+    <col min="11" max="11" width="18.75" customWidth="1"/>
+    <col min="12" max="12" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="4"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="4"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="4"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="4"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="4"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23">
+        <f>SUBTOTAL(109,[yyf])</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>SUBTOTAL(109,[xm])</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>SUBTOTAL(109,[yb])</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUBTOTAL(109,[xy])</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="每周打卡情况" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -187,7 +187,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -215,7 +225,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -224,10 +234,15 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -238,6 +253,7 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -248,6 +264,7 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -261,6 +278,7 @@
       <c:layout/>
       <c:line3DChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -315,7 +333,13 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -340,7 +364,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -441,6 +465,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD16-45C4-90B9-38B297436916}"/>
@@ -501,7 +526,13 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -526,7 +557,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -627,6 +658,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AD16-45C4-90B9-38B297436916}"/>
@@ -687,7 +719,13 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -712,7 +750,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -813,6 +851,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD16-45C4-90B9-38B297436916}"/>
@@ -873,7 +912,13 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -898,7 +943,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -999,6 +1044,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AD16-45C4-90B9-38B297436916}"/>
@@ -1006,17 +1052,23 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64930176"/>
-        <c:axId val="64932096"/>
-        <c:axId val="64227520"/>
+        <c:axId val="114411392"/>
+        <c:axId val="113975296"/>
+        <c:axId val="110809536"/>
       </c:line3DChart>
       <c:dateAx>
-        <c:axId val="64930176"/>
+        <c:axId val="114411392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1044,7 +1096,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1053,8 +1105,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1089,17 +1142,18 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64932096"/>
+        <c:crossAx val="113975296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="64932096"/>
+        <c:axId val="113975296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1141,7 +1195,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1152,6 +1206,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1186,16 +1241,19 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64930176"/>
+        <c:crossAx val="114411392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="64227520"/>
+        <c:axId val="110809536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1230,7 +1288,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64932096"/>
+        <c:crossAx val="113975296"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1243,7 +1301,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1272,7 +1330,9 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1314,12 +1374,23 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[打卡表.xlsx]Sheet1!数据透视表4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1387,9 +1458,13 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1400,6 +1475,7 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1410,6 +1486,7 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1423,6 +1500,7 @@
       <c:layout/>
       <c:line3DChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1470,6 +1548,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5797-46E1-B09F-09DD6B8A8B62}"/>
@@ -1523,6 +1602,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5797-46E1-B09F-09DD6B8A8B62}"/>
@@ -1576,6 +1656,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5797-46E1-B09F-09DD6B8A8B62}"/>
@@ -1629,25 +1710,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="64992000"/>
-        <c:axId val="64993536"/>
-        <c:axId val="64300800"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="114093056"/>
+        <c:axId val="116069120"/>
+        <c:axId val="110811776"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="64992000"/>
+        <c:axId val="114093056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1682,17 +1773,19 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64993536"/>
+        <c:crossAx val="116069120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64993536"/>
+        <c:axId val="116069120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1710,6 +1803,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1738,16 +1832,19 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64992000"/>
+        <c:crossAx val="114093056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="64300800"/>
+        <c:axId val="110811776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1776,7 +1873,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64993536"/>
+        <c:crossAx val="116069120"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1789,7 +1886,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1820,6 +1917,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1859,6 +1957,11 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1868,18 +1971,23 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1908,6 +2016,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1916,11 +2025,13 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1940,6 +2051,7 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>每周打卡情况!$A$2:$A$22</c:f>
@@ -1983,6 +2095,7 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>每周打卡情况!$A$2:$A$22</c:f>
@@ -2003,6 +2116,9 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2026,6 +2142,7 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>每周打卡情况!$A$2:$A$22</c:f>
@@ -2064,6 +2181,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>每周打卡情况!$A$2:$A$22</c:f>
@@ -2092,16 +2210,23 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178035328"/>
-        <c:axId val="178065408"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="116236288"/>
+        <c:axId val="116238208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178035328"/>
+        <c:axId val="116236288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2130,6 +2255,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2140,6 +2266,7 @@
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2174,17 +2301,19 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178065408"/>
+        <c:crossAx val="116238208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178065408"/>
+        <c:axId val="116238208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2227,6 +2356,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2237,6 +2367,7 @@
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2271,7 +2402,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178035328"/>
+        <c:crossAx val="116236288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2286,6 +2417,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2314,7 +2446,9 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2935,7 +3069,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +3110,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17BFAC26-624D-41DF-A523-67735B3CEF70}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BFAC26-624D-41DF-A523-67735B3CEF70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,7 +3151,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3443,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="C1:F23" totalsRowCount="1">
-  <autoFilter ref="C1:F23"/>
+  <autoFilter ref="C1:F22"/>
   <tableColumns count="4">
     <tableColumn id="1" name="yyf" totalsRowFunction="sum"/>
     <tableColumn id="2" name="xm" totalsRowFunction="sum"/>
@@ -3575,21 +3709,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.125" hidden="1" customWidth="1"/>
@@ -4064,19 +4198,19 @@
     </row>
     <row r="23" spans="1:11">
       <c r="B23">
-        <f>SUBTOTAL(109,[yyf])</f>
+        <f>SUBTOTAL(109,表2[yyf])</f>
         <v>3</v>
       </c>
       <c r="C23">
-        <f>SUBTOTAL(109,[xm])</f>
+        <f>SUBTOTAL(109,表2[xm])</f>
         <v>1</v>
       </c>
       <c r="D23">
-        <f>SUBTOTAL(109,[yb])</f>
+        <f>SUBTOTAL(109,表2[yb])</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>SUBTOTAL(109,[xy])</f>
+        <f>SUBTOTAL(109,表2[xy])</f>
         <v>3</v>
       </c>
     </row>
@@ -4200,14 +4334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
@@ -4306,14 +4440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
@@ -4348,7 +4482,9 @@
         <v>14</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6">
+        <v>0.38</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6">
         <v>0.6</v>
@@ -4428,19 +4564,19 @@
     </row>
     <row r="23" spans="2:6">
       <c r="C23">
-        <f>SUBTOTAL(109,[yyf])</f>
+        <f>SUBTOTAL(109,表2_2[yyf])</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>SUBTOTAL(109,[xm])</f>
+        <f>SUBTOTAL(109,表2_2[xm])</f>
+        <v>0.38</v>
+      </c>
+      <c r="E23">
+        <f>SUBTOTAL(109,表2_2[yb])</f>
         <v>0</v>
       </c>
-      <c r="E23">
-        <f>SUBTOTAL(109,[yb])</f>
-        <v>0</v>
-      </c>
       <c r="F23">
-        <f>SUBTOTAL(109,[xy])</f>
+        <f>SUBTOTAL(109,表2_2[xy])</f>
         <v>0.6</v>
       </c>
     </row>

--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8CCE0D-BE9B-48D9-9E85-A94859CA3AEC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="每日打卡情况" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="每周打卡情况" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>yyf</t>
   </si>
@@ -74,27 +75,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  2018/01/29 - 2018/02/04 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2018/02/05 - 2018/02/11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第二周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>第六周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/03/05 - 2018/03/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/02/05 - 2018/02/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/01/29 - 2018/02/04 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +195,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -233,13 +242,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -340,9 +368,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -390,6 +417,9 @@
                 <c:pt idx="7">
                   <c:v>43133</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43166</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -466,7 +496,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -533,9 +563,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -583,6 +612,9 @@
                 <c:pt idx="7">
                   <c:v>43133</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43166</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -659,7 +691,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -726,9 +758,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -776,6 +807,9 @@
                 <c:pt idx="7">
                   <c:v>43133</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43166</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -852,7 +886,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -919,9 +953,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -969,6 +1002,9 @@
                 <c:pt idx="7">
                   <c:v>43133</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43166</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1003,49 +1039,49 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -1104,6 +1140,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1203,6 +1259,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1373,7 +1449,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1461,7 +1537,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1549,7 +1624,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1603,7 +1678,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1657,7 +1732,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1711,7 +1786,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1917,14 +1992,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1956,12 +2031,7 @@
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1971,12 +2041,17 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2015,7 +2090,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2052,16 +2126,40 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>每周打卡情况!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>第一周</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>第二周</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>第六周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2075,6 +2173,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8316-4A0B-9855-791ED66B8E4F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2096,16 +2199,40 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>每周打卡情况!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>第一周</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>第二周</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>第六周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2122,6 +2249,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8316-4A0B-9855-791ED66B8E4F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2143,16 +2275,40 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>每周打卡情况!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>第一周</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>第二周</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>第六周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2166,6 +2322,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8316-4A0B-9855-791ED66B8E4F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2182,16 +2343,40 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>每周打卡情况!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>第一周</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>第二周</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>第六周</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2208,6 +2393,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8316-4A0B-9855-791ED66B8E4F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2254,7 +2444,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2264,7 +2453,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2355,7 +2544,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2416,7 +2604,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3069,7 +3256,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3297,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BFAC26-624D-41DF-A523-67735B3CEF70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3338,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +3360,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="43125.978678703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43125.978678703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:E36" sheet="Sheet1" r:id="rId2"/>
   </cacheSource>
@@ -3331,7 +3518,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J1:M2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -3416,39 +3603,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B1:E23" totalsRowCount="1">
-  <autoFilter ref="B1:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="B1:E23" totalsRowCount="1">
+  <autoFilter ref="B1:E22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="yyf" totalsRowFunction="sum"/>
-    <tableColumn id="2" name="xm" totalsRowFunction="sum"/>
-    <tableColumn id="3" name="yb" totalsRowFunction="sum"/>
-    <tableColumn id="4" name="xy" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="yyf" totalsRowFunction="sum"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="xm" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="yb" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="H1:K23" totalsRowCount="1">
-  <autoFilter ref="H1:K22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_4" displayName="表2_4" ref="H1:K23" totalsRowCount="1">
+  <autoFilter ref="H1:K22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="yyf"/>
-    <tableColumn id="2" name="xm"/>
-    <tableColumn id="3" name="yb"/>
-    <tableColumn id="4" name="xy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="yyf"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="xm"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="yb"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="xy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="C1:F23" totalsRowCount="1">
-  <autoFilter ref="C1:F22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_2" displayName="表2_2" ref="C1:F23" totalsRowCount="1">
+  <autoFilter ref="C1:F22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="yyf" totalsRowFunction="sum"/>
-    <tableColumn id="2" name="xm" totalsRowFunction="sum"/>
-    <tableColumn id="3" name="yb" totalsRowFunction="sum"/>
-    <tableColumn id="4" name="xy" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="yyf" totalsRowFunction="sum"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="xm" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="yb" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="xy" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3709,21 +3896,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.125" hidden="1" customWidth="1"/>
@@ -3731,7 +3918,7 @@
     <col min="11" max="11" width="5.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -3760,7 +3947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43126</v>
       </c>
@@ -3787,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>43127</v>
       </c>
@@ -3811,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>43128</v>
       </c>
@@ -3835,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>43129</v>
       </c>
@@ -3859,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>43130</v>
       </c>
@@ -3880,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>43131</v>
       </c>
@@ -3901,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>43132</v>
       </c>
@@ -3925,7 +4112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>43133</v>
       </c>
@@ -3949,8 +4136,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>43166</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="H10">
         <f>SUM(B$2:B10)</f>
         <v>3</v>
@@ -3965,10 +4157,10 @@
       </c>
       <c r="K10">
         <f>SUM(E$2:E10)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="H11">
         <f>SUM(B$2:B11)</f>
@@ -3984,10 +4176,10 @@
       </c>
       <c r="K11">
         <f>SUM(E$2:E11)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="H12">
         <f>SUM(B$2:B12)</f>
@@ -4003,10 +4195,10 @@
       </c>
       <c r="K12">
         <f>SUM(E$2:E12)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="H13">
         <f>SUM(B$2:B13)</f>
@@ -4022,10 +4214,10 @@
       </c>
       <c r="K13">
         <f>SUM(E$2:E13)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="H14">
         <f>SUM(B$2:B14)</f>
@@ -4041,10 +4233,10 @@
       </c>
       <c r="K14">
         <f>SUM(E$2:E14)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="H15">
         <f>SUM(B$2:B15)</f>
@@ -4060,10 +4252,10 @@
       </c>
       <c r="K15">
         <f>SUM(E$2:E15)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="H16">
         <f>SUM(B$2:B16)</f>
@@ -4079,10 +4271,10 @@
       </c>
       <c r="K16">
         <f>SUM(E$2:E16)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="H17">
         <f>SUM(B$2:B17)</f>
@@ -4098,10 +4290,10 @@
       </c>
       <c r="K17">
         <f>SUM(E$2:E17)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="H18">
         <f>SUM(B$2:B18)</f>
@@ -4117,10 +4309,10 @@
       </c>
       <c r="K18">
         <f>SUM(E$2:E18)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="H19">
         <f>SUM(B$2:B19)</f>
@@ -4136,10 +4328,10 @@
       </c>
       <c r="K19">
         <f>SUM(E$2:E19)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="H20">
         <f>SUM(B$2:B20)</f>
@@ -4155,10 +4347,10 @@
       </c>
       <c r="K20">
         <f>SUM(E$2:E20)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="H21">
         <f>SUM(B$2:B21)</f>
@@ -4174,10 +4366,10 @@
       </c>
       <c r="K21">
         <f>SUM(E$2:E21)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="H22">
         <f>SUM(B$2:B22)</f>
@@ -4193,10 +4385,10 @@
       </c>
       <c r="K22">
         <f>SUM(E$2:E22)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <f>SUBTOTAL(109,表2[yyf])</f>
         <v>3</v>
@@ -4211,10 +4403,10 @@
       </c>
       <c r="E23">
         <f>SUBTOTAL(109,表2[xy])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>13</v>
       </c>
@@ -4231,7 +4423,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="span" negative="1">
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="span" negative="1" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -4334,14 +4526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
@@ -4350,7 +4542,7 @@
     <col min="12" max="13" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -4376,7 +4568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -4402,7 +4594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -4416,16 +4608,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="11:11">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="11:11">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="11:11">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K21" s="2"/>
     </row>
-    <row r="1048576" spans="2:2">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1048576">
         <f>SUM(B2:B1048575)</f>
         <v>4</v>
@@ -4440,14 +4632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
@@ -4456,7 +4648,7 @@
     <col min="12" max="12" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -4474,12 +4666,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
@@ -4490,79 +4682,84 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23">
         <f>SUBTOTAL(109,表2_2[yyf])</f>
         <v>0</v>
@@ -4580,7 +4777,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>13</v>
       </c>

--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8CCE0D-BE9B-48D9-9E85-A94859CA3AEC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F16505-D4FC-4E7A-B7FB-C6879DFF02E6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,6 +420,9 @@
                 <c:pt idx="8">
                   <c:v>43166</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>43167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -615,6 +618,9 @@
                 <c:pt idx="8">
                   <c:v>43166</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>43167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -810,6 +816,9 @@
                 <c:pt idx="8">
                   <c:v>43166</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>43167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1005,6 +1014,9 @@
                 <c:pt idx="8">
                   <c:v>43166</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>43167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1042,40 +1054,40 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3907,7 +3919,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4161,7 +4173,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4">
+        <v>43167</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="H11">
         <f>SUM(B$2:B11)</f>
         <v>3</v>
@@ -4176,7 +4193,7 @@
       </c>
       <c r="K11">
         <f>SUM(E$2:E11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -4195,7 +4212,7 @@
       </c>
       <c r="K12">
         <f>SUM(E$2:E12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -4214,7 +4231,7 @@
       </c>
       <c r="K13">
         <f>SUM(E$2:E13)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4233,7 +4250,7 @@
       </c>
       <c r="K14">
         <f>SUM(E$2:E14)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -4252,7 +4269,7 @@
       </c>
       <c r="K15">
         <f>SUM(E$2:E15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -4271,7 +4288,7 @@
       </c>
       <c r="K16">
         <f>SUM(E$2:E16)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4290,7 +4307,7 @@
       </c>
       <c r="K17">
         <f>SUM(E$2:E17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4309,7 +4326,7 @@
       </c>
       <c r="K18">
         <f>SUM(E$2:E18)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4328,7 +4345,7 @@
       </c>
       <c r="K19">
         <f>SUM(E$2:E19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -4347,7 +4364,7 @@
       </c>
       <c r="K20">
         <f>SUM(E$2:E20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4366,7 +4383,7 @@
       </c>
       <c r="K21">
         <f>SUM(E$2:E21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4385,7 +4402,7 @@
       </c>
       <c r="K22">
         <f>SUM(E$2:E22)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -4403,7 +4420,7 @@
       </c>
       <c r="E23">
         <f>SUBTOTAL(109,表2[xy])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">

--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F16505-D4FC-4E7A-B7FB-C6879DFF02E6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="每日打卡情况" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="每周打卡情况" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -102,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,18 +194,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -234,7 +223,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -242,71 +231,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:line3DChart>
+      <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -325,9 +254,6 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
@@ -361,14 +287,8 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -391,7 +311,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -422,6 +342,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,8 +421,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -523,9 +445,6 @@
             <a:solidFill>
               <a:schemeClr val="accent2"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
@@ -559,14 +478,8 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -589,7 +502,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -620,6 +533,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,8 +612,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -721,9 +636,6 @@
             <a:solidFill>
               <a:schemeClr val="accent3"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
@@ -757,14 +669,8 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -787,7 +693,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -818,6 +724,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,8 +803,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -919,9 +827,6 @@
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
@@ -955,14 +860,8 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -985,7 +884,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -1016,6 +915,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,66 +959,59 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114411392"/>
-        <c:axId val="113975296"/>
-        <c:axId val="110809536"/>
-      </c:line3DChart>
+        <c:marker val="1"/>
+        <c:axId val="59187968"/>
+        <c:axId val="59189888"/>
+      </c:lineChart>
       <c:dateAx>
-        <c:axId val="114411392"/>
+        <c:axId val="59187968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1144,7 +1039,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1152,30 +1047,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1210,18 +1084,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113975296"/>
+        <c:crossAx val="59189888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="113975296"/>
+        <c:axId val="59189888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1263,7 +1136,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1271,30 +1144,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1329,67 +1181,22 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114411392"/>
+        <c:crossAx val="59187968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="110809536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113975296"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1418,9 +1225,7 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1454,31 +1259,20 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[打卡表.xlsx]Sheet1!数据透视表4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1546,12 +1340,9 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1562,7 +1353,6 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1573,7 +1363,6 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1587,7 +1376,6 @@
       <c:layout/>
       <c:line3DChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1635,8 +1423,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1689,8 +1476,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1743,8 +1529,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1797,35 +1582,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="114093056"/>
-        <c:axId val="116069120"/>
-        <c:axId val="110811776"/>
+        <c:dLbls/>
+        <c:axId val="65942656"/>
+        <c:axId val="65944192"/>
+        <c:axId val="59217664"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="114093056"/>
+        <c:axId val="65942656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1860,19 +1635,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116069120"/>
+        <c:crossAx val="65944192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116069120"/>
+        <c:axId val="65944192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1890,7 +1663,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1919,19 +1691,16 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114093056"/>
+        <c:crossAx val="65942656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="110811776"/>
+        <c:axId val="59217664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1960,7 +1729,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116069120"/>
+        <c:crossAx val="65944192"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1973,7 +1742,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2004,14 +1772,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2040,10 +1807,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2063,18 +1830,8 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2102,7 +1859,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2111,13 +1867,11 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2137,7 +1891,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2146,14 +1899,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2185,7 +1932,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8316-4A0B-9855-791ED66B8E4F}"/>
             </c:ext>
@@ -2210,7 +1957,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2219,14 +1965,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2261,7 +2001,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8316-4A0B-9855-791ED66B8E4F}"/>
             </c:ext>
@@ -2286,7 +2026,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2295,14 +2034,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2334,7 +2067,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8316-4A0B-9855-791ED66B8E4F}"/>
             </c:ext>
@@ -2354,7 +2087,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2363,14 +2095,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2405,30 +2131,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8316-4A0B-9855-791ED66B8E4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="116236288"/>
-        <c:axId val="116238208"/>
+        <c:axId val="66612608"/>
+        <c:axId val="66631168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116236288"/>
+        <c:axId val="66612608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2456,7 +2175,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2467,7 +2185,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2502,19 +2219,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116238208"/>
+        <c:crossAx val="66631168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116238208"/>
+        <c:axId val="66631168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2556,7 +2271,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2567,7 +2281,6 @@
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2602,7 +2315,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116236288"/>
+        <c:crossAx val="66612608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2616,7 +2329,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2645,9 +2357,7 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2681,7 +2391,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3258,8 +2968,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -3268,7 +2978,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3019,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3350,7 +3060,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,7 +3082,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43125.978678703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="43125.978678703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:E36" sheet="Sheet1" r:id="rId2"/>
   </cacheSource>
@@ -3530,7 +3240,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J1:M2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -3615,39 +3325,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="B1:E23" totalsRowCount="1">
-  <autoFilter ref="B1:E22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B1:E23" totalsRowCount="1">
+  <autoFilter ref="B1:E22"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="yyf" totalsRowFunction="sum"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="xm" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="yb" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="yyf" totalsRowFunction="sum"/>
+    <tableColumn id="2" name="xm" totalsRowFunction="sum"/>
+    <tableColumn id="3" name="yb" totalsRowFunction="sum"/>
+    <tableColumn id="4" name="xy" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_4" displayName="表2_4" ref="H1:K23" totalsRowCount="1">
-  <autoFilter ref="H1:K22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="H1:K23" totalsRowCount="1">
+  <autoFilter ref="H1:K22"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="yyf"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="xm"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="yb"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="xy"/>
+    <tableColumn id="1" name="yyf"/>
+    <tableColumn id="2" name="xm"/>
+    <tableColumn id="3" name="yb"/>
+    <tableColumn id="4" name="xy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_2" displayName="表2_2" ref="C1:F23" totalsRowCount="1">
-  <autoFilter ref="C1:F22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="C1:F23" totalsRowCount="1">
+  <autoFilter ref="C1:F22"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="yyf" totalsRowFunction="sum"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="xm" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="yb" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="xy" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="yyf" totalsRowFunction="sum"/>
+    <tableColumn id="2" name="xm" totalsRowFunction="sum"/>
+    <tableColumn id="3" name="yb" totalsRowFunction="sum"/>
+    <tableColumn id="4" name="xy" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3908,21 +3618,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.125" hidden="1" customWidth="1"/>
@@ -3930,7 +3640,7 @@
     <col min="11" max="11" width="5.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -3959,7 +3669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>43126</v>
       </c>
@@ -3986,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>43127</v>
       </c>
@@ -4010,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>43128</v>
       </c>
@@ -4034,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>43129</v>
       </c>
@@ -4058,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>43130</v>
       </c>
@@ -4079,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>43131</v>
       </c>
@@ -4100,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>43132</v>
       </c>
@@ -4124,7 +3834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>43133</v>
       </c>
@@ -4148,7 +3858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>43166</v>
       </c>
@@ -4172,7 +3882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>43167</v>
       </c>
@@ -4196,8 +3906,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4">
+        <v>43173</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="H12">
         <f>SUM(B$2:B12)</f>
         <v>3</v>
@@ -4212,10 +3927,10 @@
       </c>
       <c r="K12">
         <f>SUM(E$2:E12)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4"/>
       <c r="H13">
         <f>SUM(B$2:B13)</f>
@@ -4231,10 +3946,10 @@
       </c>
       <c r="K13">
         <f>SUM(E$2:E13)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4"/>
       <c r="H14">
         <f>SUM(B$2:B14)</f>
@@ -4250,10 +3965,10 @@
       </c>
       <c r="K14">
         <f>SUM(E$2:E14)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4"/>
       <c r="H15">
         <f>SUM(B$2:B15)</f>
@@ -4269,10 +3984,10 @@
       </c>
       <c r="K15">
         <f>SUM(E$2:E15)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4"/>
       <c r="H16">
         <f>SUM(B$2:B16)</f>
@@ -4288,10 +4003,10 @@
       </c>
       <c r="K16">
         <f>SUM(E$2:E16)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4"/>
       <c r="H17">
         <f>SUM(B$2:B17)</f>
@@ -4307,10 +4022,10 @@
       </c>
       <c r="K17">
         <f>SUM(E$2:E17)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4"/>
       <c r="H18">
         <f>SUM(B$2:B18)</f>
@@ -4326,10 +4041,10 @@
       </c>
       <c r="K18">
         <f>SUM(E$2:E18)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4"/>
       <c r="H19">
         <f>SUM(B$2:B19)</f>
@@ -4345,10 +4060,10 @@
       </c>
       <c r="K19">
         <f>SUM(E$2:E19)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="4"/>
       <c r="H20">
         <f>SUM(B$2:B20)</f>
@@ -4364,10 +4079,10 @@
       </c>
       <c r="K20">
         <f>SUM(E$2:E20)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="4"/>
       <c r="H21">
         <f>SUM(B$2:B21)</f>
@@ -4383,10 +4098,10 @@
       </c>
       <c r="K21">
         <f>SUM(E$2:E21)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="4"/>
       <c r="H22">
         <f>SUM(B$2:B22)</f>
@@ -4402,28 +4117,28 @@
       </c>
       <c r="K22">
         <f>SUM(E$2:E22)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="B23">
-        <f>SUBTOTAL(109,表2[yyf])</f>
+        <f>SUBTOTAL(109,[yyf])</f>
         <v>3</v>
       </c>
       <c r="C23">
-        <f>SUBTOTAL(109,表2[xm])</f>
+        <f>SUBTOTAL(109,[xm])</f>
         <v>1</v>
       </c>
       <c r="D23">
-        <f>SUBTOTAL(109,表2[yb])</f>
+        <f>SUBTOTAL(109,[yb])</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>SUBTOTAL(109,表2[xy])</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <f>SUBTOTAL(109,[xy])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="D29" t="s">
         <v>13</v>
       </c>
@@ -4437,7 +4152,7 @@
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
   </tableParts>
-  <extLst>
+  <extLst xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x14:sparklineGroup type="stacked" displayEmptyCellsAs="span" negative="1" xr2:uid="{00000000-0003-0000-0000-000000000000}">
@@ -4543,14 +4258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
@@ -4559,7 +4274,7 @@
     <col min="12" max="13" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -4585,7 +4300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -4611,7 +4326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -4625,16 +4340,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:11">
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:11">
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:11">
       <c r="K21" s="2"/>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="2:2">
       <c r="B1048576">
         <f>SUM(B2:B1048575)</f>
         <v>4</v>
@@ -4649,14 +4364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
@@ -4665,7 +4380,7 @@
     <col min="12" max="12" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -4683,7 +4398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4699,7 +4414,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4709,7 +4424,7 @@
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4718,83 +4433,83 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" s="4"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7" s="4"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" s="4"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="C23">
-        <f>SUBTOTAL(109,表2_2[yyf])</f>
+        <f>SUBTOTAL(109,[yyf])</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>SUBTOTAL(109,表2_2[xm])</f>
+        <f>SUBTOTAL(109,[xm])</f>
         <v>0.38</v>
       </c>
       <c r="E23">
-        <f>SUBTOTAL(109,表2_2[yb])</f>
+        <f>SUBTOTAL(109,[yb])</f>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>SUBTOTAL(109,表2_2[xy])</f>
+        <f>SUBTOTAL(109,[xy])</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6">
       <c r="E29" t="s">
         <v>13</v>
       </c>

--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADDA48E-073D-43E3-BF68-29946734D6A1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="每日打卡情况" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="每周打卡情况" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -101,8 +102,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +195,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -223,7 +234,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -232,10 +243,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -251,11 +264,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:dLbls>
             <c:spPr>
@@ -287,8 +296,14 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -311,7 +326,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -345,6 +360,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -421,7 +439,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -442,11 +461,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:dLbls>
             <c:spPr>
@@ -478,8 +493,14 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -502,7 +523,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -536,6 +557,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,7 +636,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -633,11 +658,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:dLbls>
             <c:spPr>
@@ -669,8 +690,14 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -693,7 +720,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -727,6 +754,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,7 +833,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
@@ -824,11 +855,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:dLbls>
             <c:spPr>
@@ -860,8 +887,14 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -884,7 +917,7 @@
             <c:numRef>
               <c:f>每日打卡情况!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43126</c:v>
@@ -918,6 +951,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,48 +998,55 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AD16-45C4-90B9-38B297436916}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="59187968"/>
         <c:axId val="59189888"/>
       </c:lineChart>
@@ -1012,6 +1055,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1039,7 +1083,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1048,8 +1092,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1095,6 +1140,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1136,7 +1182,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1147,6 +1193,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1196,7 +1243,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1225,7 +1272,9 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1266,13 +1315,24 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[打卡表.xlsx]Sheet1!数据透视表4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1340,9 +1400,12 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
-      <c:perspective val="30"/>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1353,6 +1416,7 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1363,6 +1427,7 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1376,6 +1441,7 @@
       <c:layout/>
       <c:line3DChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1423,7 +1489,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1476,7 +1543,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1529,7 +1597,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
@@ -1582,13 +1651,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5797-46E1-B09F-09DD6B8A8B62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="65942656"/>
         <c:axId val="65944192"/>
         <c:axId val="59217664"/>
@@ -1598,9 +1675,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1640,12 +1719,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="65944192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1663,6 +1744,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1700,7 +1782,10 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1742,6 +1827,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1772,13 +1858,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1810,7 +1897,7 @@
     <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1830,8 +1917,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1859,6 +1956,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1867,11 +1965,13 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1891,6 +1991,7 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1899,8 +2000,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1932,7 +2039,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8316-4A0B-9855-791ED66B8E4F}"/>
             </c:ext>
@@ -1957,6 +2064,7 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1965,8 +2073,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2001,7 +2115,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8316-4A0B-9855-791ED66B8E4F}"/>
             </c:ext>
@@ -2026,6 +2140,7 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2034,8 +2149,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2067,7 +2188,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8316-4A0B-9855-791ED66B8E4F}"/>
             </c:ext>
@@ -2087,6 +2208,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2095,8 +2217,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2131,15 +2259,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8316-4A0B-9855-791ED66B8E4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="66612608"/>
         <c:axId val="66631168"/>
       </c:barChart>
@@ -2148,6 +2282,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2175,6 +2310,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2185,6 +2321,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2224,12 +2361,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="66631168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2271,6 +2410,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2281,6 +2421,7 @@
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2329,6 +2470,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2357,7 +2499,9 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2397,567 +2541,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2978,7 +2561,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +2602,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +2643,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,7 +2665,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="43125.978678703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43125.978678703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:E36" sheet="Sheet1" r:id="rId2"/>
   </cacheSource>
@@ -3240,7 +2823,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J1:M2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -3325,39 +2908,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B1:E23" totalsRowCount="1">
-  <autoFilter ref="B1:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="B1:E23" totalsRowCount="1">
+  <autoFilter ref="B1:E22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="yyf" totalsRowFunction="sum"/>
-    <tableColumn id="2" name="xm" totalsRowFunction="sum"/>
-    <tableColumn id="3" name="yb" totalsRowFunction="sum"/>
-    <tableColumn id="4" name="xy" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="yyf" totalsRowFunction="sum"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="xm" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="yb" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="H1:K23" totalsRowCount="1">
-  <autoFilter ref="H1:K22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_4" displayName="表2_4" ref="H1:K23" totalsRowCount="1">
+  <autoFilter ref="H1:K22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="yyf"/>
-    <tableColumn id="2" name="xm"/>
-    <tableColumn id="3" name="yb"/>
-    <tableColumn id="4" name="xy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="yyf"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="xm"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="yb"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="xy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="C1:F23" totalsRowCount="1">
-  <autoFilter ref="C1:F22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_2" displayName="表2_2" ref="C1:F23" totalsRowCount="1">
+  <autoFilter ref="C1:F22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="yyf" totalsRowFunction="sum"/>
-    <tableColumn id="2" name="xm" totalsRowFunction="sum"/>
-    <tableColumn id="3" name="yb" totalsRowFunction="sum"/>
-    <tableColumn id="4" name="xy" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="yyf" totalsRowFunction="sum"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="xm" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="yb" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="xy" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3618,21 +3201,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.125" hidden="1" customWidth="1"/>
@@ -3640,7 +3223,7 @@
     <col min="11" max="11" width="5.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -3669,7 +3252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43126</v>
       </c>
@@ -3696,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>43127</v>
       </c>
@@ -3720,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>43128</v>
       </c>
@@ -3744,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>43129</v>
       </c>
@@ -3768,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>43130</v>
       </c>
@@ -3789,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>43131</v>
       </c>
@@ -3810,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>43132</v>
       </c>
@@ -3834,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>43133</v>
       </c>
@@ -3858,7 +3441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>43166</v>
       </c>
@@ -3882,7 +3465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>43167</v>
       </c>
@@ -3906,7 +3489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>43173</v>
       </c>
@@ -3930,8 +3513,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>43174</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="H13">
         <f>SUM(B$2:B13)</f>
         <v>3</v>
@@ -3946,10 +3534,10 @@
       </c>
       <c r="K13">
         <f>SUM(E$2:E13)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="H14">
         <f>SUM(B$2:B14)</f>
@@ -3965,10 +3553,10 @@
       </c>
       <c r="K14">
         <f>SUM(E$2:E14)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="H15">
         <f>SUM(B$2:B15)</f>
@@ -3984,10 +3572,10 @@
       </c>
       <c r="K15">
         <f>SUM(E$2:E15)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="H16">
         <f>SUM(B$2:B16)</f>
@@ -4003,10 +3591,10 @@
       </c>
       <c r="K16">
         <f>SUM(E$2:E16)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="H17">
         <f>SUM(B$2:B17)</f>
@@ -4022,10 +3610,10 @@
       </c>
       <c r="K17">
         <f>SUM(E$2:E17)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="H18">
         <f>SUM(B$2:B18)</f>
@@ -4041,10 +3629,10 @@
       </c>
       <c r="K18">
         <f>SUM(E$2:E18)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="H19">
         <f>SUM(B$2:B19)</f>
@@ -4060,10 +3648,10 @@
       </c>
       <c r="K19">
         <f>SUM(E$2:E19)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="H20">
         <f>SUM(B$2:B20)</f>
@@ -4079,10 +3667,10 @@
       </c>
       <c r="K20">
         <f>SUM(E$2:E20)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="H21">
         <f>SUM(B$2:B21)</f>
@@ -4098,10 +3686,10 @@
       </c>
       <c r="K21">
         <f>SUM(E$2:E21)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="H22">
         <f>SUM(B$2:B22)</f>
@@ -4117,28 +3705,28 @@
       </c>
       <c r="K22">
         <f>SUM(E$2:E22)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23">
-        <f>SUBTOTAL(109,[yyf])</f>
+        <f>SUBTOTAL(109,表2[yyf])</f>
         <v>3</v>
       </c>
       <c r="C23">
-        <f>SUBTOTAL(109,[xm])</f>
+        <f>SUBTOTAL(109,表2[xm])</f>
         <v>1</v>
       </c>
       <c r="D23">
-        <f>SUBTOTAL(109,[yb])</f>
+        <f>SUBTOTAL(109,表2[yb])</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>SUBTOTAL(109,[xy])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <f>SUBTOTAL(109,表2[xy])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>13</v>
       </c>
@@ -4152,7 +3740,7 @@
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
   </tableParts>
-  <extLst xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x14:sparklineGroup type="stacked" displayEmptyCellsAs="span" negative="1" xr2:uid="{00000000-0003-0000-0000-000000000000}">
@@ -4258,14 +3846,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
@@ -4274,7 +3862,7 @@
     <col min="12" max="13" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -4300,7 +3888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -4326,7 +3914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -4340,16 +3928,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="11:11">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="11:11">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="11:11">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K21" s="2"/>
     </row>
-    <row r="1048576" spans="2:2">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1048576">
         <f>SUM(B2:B1048575)</f>
         <v>4</v>
@@ -4364,14 +3952,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
@@ -4380,7 +3968,7 @@
     <col min="12" max="12" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -4398,7 +3986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4414,7 +4002,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4424,7 +4012,7 @@
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4433,83 +4021,83 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23">
-        <f>SUBTOTAL(109,[yyf])</f>
+        <f>SUBTOTAL(109,表2_2[yyf])</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>SUBTOTAL(109,[xm])</f>
+        <f>SUBTOTAL(109,表2_2[xm])</f>
         <v>0.38</v>
       </c>
       <c r="E23">
-        <f>SUBTOTAL(109,[yb])</f>
+        <f>SUBTOTAL(109,表2_2[yb])</f>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>SUBTOTAL(109,[xy])</f>
+        <f>SUBTOTAL(109,表2_2[xy])</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>13</v>
       </c>

--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADDA48E-073D-43E3-BF68-29946734D6A1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5249961F-08FF-4C78-A024-217CC8028E09}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="每周打卡情况" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -364,6 +364,9 @@
                 <c:pt idx="11">
                   <c:v>43174</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43226</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -561,6 +564,9 @@
                 <c:pt idx="11">
                   <c:v>43174</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43226</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -758,6 +764,9 @@
                 <c:pt idx="11">
                   <c:v>43174</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43226</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -955,6 +964,9 @@
                 <c:pt idx="11">
                   <c:v>43174</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43226</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1001,31 +1013,31 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3212,7 +3224,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3538,7 +3550,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4">
+        <v>43226</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="H14">
         <f>SUM(B$2:B14)</f>
         <v>3</v>
@@ -3553,7 +3570,7 @@
       </c>
       <c r="K14">
         <f>SUM(E$2:E14)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3572,7 +3589,7 @@
       </c>
       <c r="K15">
         <f>SUM(E$2:E15)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3591,7 +3608,7 @@
       </c>
       <c r="K16">
         <f>SUM(E$2:E16)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3610,7 +3627,7 @@
       </c>
       <c r="K17">
         <f>SUM(E$2:E17)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3629,7 +3646,7 @@
       </c>
       <c r="K18">
         <f>SUM(E$2:E18)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3648,7 +3665,7 @@
       </c>
       <c r="K19">
         <f>SUM(E$2:E19)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3667,7 +3684,7 @@
       </c>
       <c r="K20">
         <f>SUM(E$2:E20)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3686,7 +3703,7 @@
       </c>
       <c r="K21">
         <f>SUM(E$2:E21)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3705,7 +3722,7 @@
       </c>
       <c r="K22">
         <f>SUM(E$2:E22)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3723,7 +3740,7 @@
       </c>
       <c r="E23">
         <f>SUBTOTAL(109,表2[xy])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">

--- a/打卡表.xlsx
+++ b/打卡表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5249961F-08FF-4C78-A024-217CC8028E09}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289DA595-37FD-49DA-BB0F-112A23A755A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,6 +367,9 @@
                 <c:pt idx="12">
                   <c:v>43226</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43229</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -567,6 +570,9 @@
                 <c:pt idx="12">
                   <c:v>43226</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43229</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -767,6 +773,9 @@
                 <c:pt idx="12">
                   <c:v>43226</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43229</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -967,6 +976,9 @@
                 <c:pt idx="12">
                   <c:v>43226</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43229</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1016,28 +1028,28 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3224,7 +3236,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3574,7 +3586,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4">
+        <v>43229</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="H15">
         <f>SUM(B$2:B15)</f>
         <v>3</v>
@@ -3589,7 +3606,7 @@
       </c>
       <c r="K15">
         <f>SUM(E$2:E15)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3608,7 +3625,7 @@
       </c>
       <c r="K16">
         <f>SUM(E$2:E16)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3627,7 +3644,7 @@
       </c>
       <c r="K17">
         <f>SUM(E$2:E17)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3646,7 +3663,7 @@
       </c>
       <c r="K18">
         <f>SUM(E$2:E18)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3665,7 +3682,7 @@
       </c>
       <c r="K19">
         <f>SUM(E$2:E19)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3684,7 +3701,7 @@
       </c>
       <c r="K20">
         <f>SUM(E$2:E20)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3703,7 +3720,7 @@
       </c>
       <c r="K21">
         <f>SUM(E$2:E21)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3722,7 +3739,7 @@
       </c>
       <c r="K22">
         <f>SUM(E$2:E22)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3740,7 +3757,7 @@
       </c>
       <c r="E23">
         <f>SUBTOTAL(109,表2[xy])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
